--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -1351,7 +1351,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M10" s="46" t="inlineStr"/>
+      <c r="M10" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N10" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1443,7 +1447,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M12" s="46" t="inlineStr"/>
+      <c r="M12" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N12" s="54" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
@@ -1597,7 +1605,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M15" s="46" t="inlineStr"/>
+      <c r="M15" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N15" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1677,7 +1689,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M17" s="46" t="inlineStr"/>
+      <c r="M17" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N17" s="53" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -76,17 +76,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8EF5F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE66CB5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EF5F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -306,6 +306,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,40 +318,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -365,7 +365,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -795,7 +795,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="A1:N38"/>
+      <selection activeCell="G12" sqref="A1:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1109,7 +1109,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M5" s="46" t="inlineStr"/>
+      <c r="M5" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N5" s="54" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
@@ -1539,7 +1543,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M14" s="46" t="inlineStr"/>
+      <c r="M14" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N14" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1650,7 +1658,11 @@
         </is>
       </c>
       <c r="K16" s="46" t="inlineStr"/>
-      <c r="L16" s="54" t="inlineStr"/>
+      <c r="L16" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M16" s="46" t="inlineStr"/>
       <c r="N16" s="53" t="inlineStr">
         <is>
@@ -2057,7 +2069,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M25" s="46" t="inlineStr"/>
+      <c r="M25" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N25" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2183,13 +2199,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K27" s="46" t="inlineStr"/>
+      <c r="K27" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L27" s="53" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="M27" s="46" t="inlineStr"/>
+      <c r="M27" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N27" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2467,7 +2491,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K33" s="46" t="inlineStr"/>
+      <c r="K33" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L33" s="54" t="inlineStr"/>
       <c r="M33" s="46" t="inlineStr"/>
       <c r="N33" s="54" t="inlineStr"/>
@@ -2521,13 +2549,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K34" s="46" t="inlineStr"/>
+      <c r="K34" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L34" s="53" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="M34" s="46" t="inlineStr"/>
+      <c r="M34" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N34" s="53" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -1175,7 +1175,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M6" s="46" t="inlineStr"/>
+      <c r="M6" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N6" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1721,8 +1725,16 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="43" t="inlineStr"/>
-      <c r="D18" s="55" t="inlineStr"/>
+      <c r="C18" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D18" s="48" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E18" s="47" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1733,14 +1745,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G18" s="44" t="inlineStr"/>
+      <c r="G18" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H18" s="56" t="inlineStr"/>
       <c r="I18" s="51" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J18" s="56" t="inlineStr"/>
+      <c r="J18" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K18" s="46" t="inlineStr"/>
       <c r="L18" s="54" t="inlineStr"/>
       <c r="M18" s="46" t="inlineStr"/>
@@ -1950,7 +1970,11 @@
         </is>
       </c>
       <c r="K22" s="46" t="inlineStr"/>
-      <c r="L22" s="54" t="inlineStr"/>
+      <c r="L22" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M22" s="52" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2266,7 +2290,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L28" s="54" t="inlineStr"/>
+      <c r="L28" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M28" s="46" t="inlineStr"/>
       <c r="N28" s="53" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -1114,7 +1114,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N5" s="54" t="inlineStr"/>
+      <c r="N5" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="31" t="n">
@@ -1267,7 +1271,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M8" s="46" t="inlineStr"/>
+      <c r="M8" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N8" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1821,7 +1829,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M19" s="46" t="inlineStr"/>
+      <c r="M19" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N19" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2295,7 +2307,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M28" s="46" t="inlineStr"/>
+      <c r="M28" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N28" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2643,7 +2659,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K35" s="46" t="inlineStr"/>
+      <c r="K35" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L35" s="53" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -2373,7 +2373,11 @@
         </is>
       </c>
       <c r="L29" s="54" t="inlineStr"/>
-      <c r="M29" s="46" t="inlineStr"/>
+      <c r="M29" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N29" s="54" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -1468,7 +1468,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N12" s="54" t="inlineStr"/>
+      <c r="N12" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="31" t="n">
@@ -2441,7 +2445,11 @@
       <c r="J31" s="56" t="inlineStr"/>
       <c r="K31" s="46" t="inlineStr"/>
       <c r="L31" s="54" t="inlineStr"/>
-      <c r="M31" s="46" t="inlineStr"/>
+      <c r="M31" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N31" s="54" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -1985,7 +1985,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K22" s="46" t="inlineStr"/>
+      <c r="K22" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L22" s="53" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -1762,7 +1762,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H18" s="56" t="inlineStr"/>
+      <c r="H18" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I18" s="51" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1773,7 +1777,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K18" s="46" t="inlineStr"/>
+      <c r="K18" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L18" s="54" t="inlineStr"/>
       <c r="M18" s="46" t="inlineStr"/>
       <c r="N18" s="54" t="inlineStr"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 31 November 2021).xlsx
@@ -2394,7 +2394,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N29" s="54" t="inlineStr"/>
+      <c r="N29" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="31" t="n">
